--- a/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellementV4.xlsx
+++ b/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellementV4.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proget2017v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Marina" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marina!$A$1:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marina!$A$1:$E$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="61">
   <si>
     <t>Nom de Program</t>
   </si>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -942,7 +942,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,15 +1260,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1375,22 +1375,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>51</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="42"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="43"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="41"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>25</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>25</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>25</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>25</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>25</v>
       </c>
@@ -1625,14 +1625,14 @@
       </c>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="40"/>
       <c r="B18" s="16"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="E18" s="52"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>26</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="D19" s="53"/>
       <c r="E19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="51" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="51" t="s">
         <v>26</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="51" t="s">
         <v>26</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="51" t="s">
         <v>26</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="51" t="s">
         <v>26</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="51" t="s">
         <v>26</v>
       </c>
@@ -1732,14 +1732,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="40"/>
       <c r="B26" s="16"/>
       <c r="C26" s="18"/>
       <c r="D26" s="55"/>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
         <v>30</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="D27" s="56"/>
       <c r="E27" s="58"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
         <v>30</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
         <v>30</v>
       </c>
@@ -1793,70 +1793,71 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="60" t="s">
         <v>31</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
-        <v>32</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7" t="s">
@@ -1869,9 +1870,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="7" t="s">
@@ -1884,9 +1885,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="7" t="s">
@@ -1899,49 +1900,49 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="61" t="s">
+        <v>34</v>
+      </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="62"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="40"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="48"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="7" t="s">
         <v>21</v>
       </c>
@@ -1952,9 +1953,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="7" t="s">
@@ -1967,9 +1968,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="7" t="s">
@@ -1982,42 +1983,42 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="37"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="37"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2028,9 +2029,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="7" t="s">
@@ -2043,9 +2044,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="7" t="s">
@@ -2058,333 +2059,348 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="35"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="35"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="53"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="64" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="54"/>
       <c r="C56" s="64" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="54"/>
       <c r="C57" s="64" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="54"/>
       <c r="C58" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="27"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
       <c r="B60" s="55"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="28"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="C60" s="64"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="16"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="20" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="C63" s="7"/>
       <c r="D63" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="25"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="E68" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="20" t="s">
+      <c r="C69" s="12"/>
+      <c r="D69" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="C70" s="7"/>
       <c r="D70" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E70" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E71" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E72" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E75" s="28" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E76"/>
+  <autoFilter ref="A1:E77"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
     <hyperlink ref="C22" r:id="rId2" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
     <hyperlink ref="C30" r:id="rId3" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C56" r:id="rId4" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C48" r:id="rId5" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C49" r:id="rId6" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C50" r:id="rId7" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
-    <hyperlink ref="C51" r:id="rId8" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C57" r:id="rId4" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C49" r:id="rId5" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C50" r:id="rId6" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C51" r:id="rId7" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C52" r:id="rId8" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
